--- a/data_original/世界各国社经/世界各国社经3-33sheet.xlsx
+++ b/data_original/世界各国社经/世界各国社经3-33sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\githubuse\MpoxPredict\data_original\世界各国社经\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF971F2-9D09-46E5-88AA-09D862E4A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9825E0-1C22-405F-9746-9FBB7656F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="252">
   <si>
     <t>国家</t>
   </si>
@@ -700,9 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安道​​尔</t>
-  </si>
-  <si>
     <t>摩纳哥</t>
   </si>
   <si>
@@ -840,6 +837,40 @@
   </si>
   <si>
     <t>奥地利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>安道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>安道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2109,9 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F099901-C4B7-4D7B-89E6-DACFA0854E5C}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6593,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B4A166-A093-4BB2-80EF-6762DEB78212}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6604,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6657,7 +6686,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4.5</v>
@@ -7021,7 +7050,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -7385,7 +7414,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57">
         <v>12.5</v>
@@ -9080,6 +9109,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9098,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10752,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12406,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14060,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -14239,7 +14269,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -14958,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16318,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -16978,7 +17008,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -17788,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18322,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19532,7 +19562,7 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19542,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -19595,7 +19625,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>47898</v>
@@ -19959,7 +19989,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>16129</v>
@@ -20057,7 +20087,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B38">
         <v>23663</v>
@@ -20225,7 +20255,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B50">
         <v>9106</v>
@@ -20337,7 +20367,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58">
         <v>70782</v>
@@ -20435,7 +20465,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B65">
         <v>11971</v>
@@ -20757,7 +20787,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B88">
         <v>9106</v>
@@ -20869,7 +20899,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96">
         <v>70782</v>
@@ -20967,7 +20997,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103">
         <v>11971</v>
@@ -21905,7 +21935,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B170">
         <v>80032</v>
@@ -21942,7 +21972,7 @@
   <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21952,7 +21982,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -22005,7 +22035,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>159</v>
@@ -22369,7 +22399,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>67</v>
@@ -22467,7 +22497,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B38">
         <v>123</v>
@@ -22635,7 +22665,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B50">
         <v>143</v>
@@ -22747,7 +22777,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58">
         <v>680</v>
@@ -22845,7 +22875,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -24385,7 +24415,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B175">
         <v>314</v>
@@ -24422,7 +24452,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24432,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -24485,7 +24515,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>196</v>
@@ -24849,7 +24879,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>179</v>
@@ -25101,7 +25131,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49">
         <v>146</v>
@@ -25199,7 +25229,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56">
         <v>124</v>
@@ -25297,7 +25327,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B63">
         <v>141</v>
@@ -25409,7 +25439,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71">
         <v>135</v>
@@ -26636,7 +26666,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26646,7 +26676,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -26699,7 +26729,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>156766</v>
@@ -27063,7 +27093,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>65140</v>
@@ -27315,7 +27345,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49">
         <v>136512</v>
@@ -27413,7 +27443,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56">
         <v>502306</v>
@@ -27511,7 +27541,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B63">
         <v>79738</v>
@@ -27623,7 +27653,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71">
         <v>64297</v>
@@ -28860,7 +28890,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -29422,7 +29452,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -29876,7 +29906,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29886,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -30294,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -33154,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -33548,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -34199,7 +34229,7 @@
   <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34209,7 +34239,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -34262,7 +34292,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>1031</v>
@@ -34402,7 +34432,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <v>1562</v>
@@ -34500,7 +34530,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22">
         <v>710</v>
@@ -34724,7 +34754,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38">
         <v>881</v>
@@ -34794,7 +34824,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43">
         <v>1946</v>
@@ -34836,7 +34866,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B46">
         <v>494</v>
@@ -34934,7 +34964,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53">
         <v>913</v>
@@ -35004,7 +35034,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B58">
         <v>1128</v>
@@ -35172,7 +35202,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70">
         <v>2166</v>
@@ -35886,7 +35916,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121">
         <v>1152</v>
@@ -36138,7 +36168,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B139">
         <v>720</v>
@@ -36166,7 +36196,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B141">
         <v>1056</v>
@@ -36180,7 +36210,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B142">
         <v>3563</v>
@@ -36194,7 +36224,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B143">
         <v>2641</v>
@@ -36222,7 +36252,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145">
         <v>4579</v>
@@ -36272,7 +36302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C0770-12A2-4DC6-9225-8D9FC12D82B0}">
   <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -36283,7 +36313,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -36336,7 +36366,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5">
         <v>8.43</v>
@@ -36350,7 +36380,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6">
         <v>7.35</v>
@@ -36504,7 +36534,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>6.5</v>
@@ -36714,7 +36744,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>13.62</v>
@@ -36812,7 +36842,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39">
         <v>12.95</v>
@@ -36980,7 +37010,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51">
         <v>27.33</v>
@@ -37092,7 +37122,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59">
         <v>26.15</v>
@@ -37190,7 +37220,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66">
         <v>-17.559999999999999</v>
@@ -37358,7 +37388,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B78">
         <v>27.61</v>
@@ -37442,7 +37472,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B84">
         <v>26.83</v>
@@ -37624,7 +37654,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B97">
         <v>27.65</v>
@@ -38618,7 +38648,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168">
         <v>25.08</v>
@@ -38968,7 +38998,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B193">
         <v>22.19</v>
@@ -39010,7 +39040,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B196">
         <v>27.49</v>
@@ -39024,7 +39054,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B197">
         <v>28.07</v>
@@ -39038,7 +39068,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B198">
         <v>27.34</v>
@@ -39066,7 +39096,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B200">
         <v>27.56</v>
@@ -39136,7 +39166,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>23.04</v>
